--- a/CMPG223 GRP 16 CHANGELIST.xlsx
+++ b/CMPG223 GRP 16 CHANGELIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentine/GitHub/StatsSAQuestionnaireApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShaneE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D8AB5-D3F5-7942-9E1E-87995E726443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDCDC5-2AF0-4DB8-B093-5179F15B11B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Maintain Surveys</t>
   </si>
@@ -104,6 +103,9 @@
   </si>
   <si>
     <t>GIFT</t>
+  </si>
+  <si>
+    <t>Shané Erasmus</t>
   </si>
 </sst>
 </file>
@@ -475,18 +477,18 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -503,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +516,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -522,7 +524,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +532,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -538,15 +540,18 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -554,7 +559,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -562,7 +567,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -598,16 +603,16 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -618,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -629,25 +634,28 @@
         <v>35968060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>36309915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>

--- a/CMPG223 GRP 16 CHANGELIST.xlsx
+++ b/CMPG223 GRP 16 CHANGELIST.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentine/GitHub/StatsSAQuestionnaireApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dev\StatsSAQuestionnaireApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D8AB5-D3F5-7942-9E1E-87995E726443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="28035" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGES" sheetId="1" r:id="rId1"/>
     <sheet name="MEMBERS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Maintain Surveys</t>
   </si>
@@ -104,12 +103,15 @@
   </si>
   <si>
     <t>GIFT</t>
+  </si>
+  <si>
+    <t>Shané Erasmus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -471,22 +473,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84D20BD-F409-E647-9DD1-3AFF13868184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -503,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +517,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -522,7 +525,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +533,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -538,15 +541,18 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -554,7 +560,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -562,7 +568,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -572,7 +578,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{AFA7F67D-2AC6-DD4B-B2CB-A9DB69D800EB}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>44467</formula1>
       <formula2>44479</formula2>
     </dataValidation>
@@ -581,7 +587,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E239E2D4-E3CE-4644-8AA6-460B2F8A9ECC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MEMBERS!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -594,20 +600,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E995DAB6-36AD-974F-ABCE-A51A401E8BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -618,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -629,25 +635,28 @@
         <v>35968060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>36309915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>

--- a/CMPG223 GRP 16 CHANGELIST.xlsx
+++ b/CMPG223 GRP 16 CHANGELIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentine/GitHub/StatsSAQuestionnaireApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K.Moetle\Documents\GitHub\StatsSAQuestionnaireApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D8AB5-D3F5-7942-9E1E-87995E726443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CA555E-2BE8-4183-AFB1-7C6366BC24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Maintain Surveys</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>GIFT</t>
+  </si>
+  <si>
+    <t>Kgolagano</t>
+  </si>
+  <si>
+    <t>Moetle</t>
   </si>
 </sst>
 </file>
@@ -474,19 +480,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84D20BD-F409-E647-9DD1-3AFF13868184}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -503,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,15 +520,18 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,15 +539,18 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -546,7 +558,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -554,7 +566,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -562,7 +574,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -595,19 +607,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E995DAB6-36AD-974F-ABCE-A51A401E8BF8}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -618,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -629,7 +641,7 @@
         <v>35968060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -637,19 +649,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>24596906</v>
       </c>
     </row>
   </sheetData>

--- a/CMPG223 GRP 16 CHANGELIST.xlsx
+++ b/CMPG223 GRP 16 CHANGELIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentine/GitHub/StatsSAQuestionnaireApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K.Moetle\Documents\GitHub\StatsSAQuestionnaireApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D8AB5-D3F5-7942-9E1E-87995E726443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E00170-391E-4B14-8FE7-0A6C11801E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Maintain Surveys</t>
   </si>
@@ -103,7 +103,13 @@
     <t>NEO</t>
   </si>
   <si>
-    <t>GIFT</t>
+    <t>KGOLAGANO</t>
+  </si>
+  <si>
+    <t>MOETLE</t>
+  </si>
+  <si>
+    <t>I will start working on this Use case and share my update ASAP</t>
   </si>
 </sst>
 </file>
@@ -474,19 +480,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84D20BD-F409-E647-9DD1-3AFF13868184}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -503,7 +510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,15 +521,18 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +540,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -538,15 +548,21 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="3">
         <v>44467</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -554,7 +570,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -562,7 +578,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -597,17 +613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E995DAB6-36AD-974F-ABCE-A51A401E8BF8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -618,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -629,7 +645,7 @@
         <v>35968060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -637,19 +653,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>24596906</v>
       </c>
     </row>
   </sheetData>

--- a/CMPG223 GRP 16 CHANGELIST.xlsx
+++ b/CMPG223 GRP 16 CHANGELIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K.Moetle\Documents\GitHub\StatsSAQuestionnaireApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentine/GitHub/StatsSAQuestionnaireApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CA555E-2BE8-4183-AFB1-7C6366BC24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204A032-E8BB-A046-A152-AAA48D1E3069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Maintain Surveys</t>
   </si>
@@ -481,18 +481,18 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -531,7 +531,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -550,15 +550,18 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -566,17 +569,23 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="3">
         <v>44467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>44467</v>
@@ -597,7 +606,7 @@
           <x14:formula1>
             <xm:f>MEMBERS!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -613,13 +622,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -630,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -641,7 +650,7 @@
         <v>35968060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -649,22 +658,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>

--- a/CMPG223 GRP 16 CHANGELIST.xlsx
+++ b/CMPG223 GRP 16 CHANGELIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentine/GitHub/StatsSAQuestionnaireApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204A032-E8BB-A046-A152-AAA48D1E3069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F48AE-4FAC-6548-897C-C59AAA15ACE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" activeTab="1" xr2:uid="{5E7F79AF-F575-A44E-ACE9-5BE4F848E51D}"/>
   </bookViews>
   <sheets>
     <sheet name="CHANGES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Maintain Surveys</t>
   </si>
@@ -100,9 +100,6 @@
     <t>TSHIDI</t>
   </si>
   <si>
-    <t>NEO</t>
-  </si>
-  <si>
     <t>GIFT</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Moetle</t>
+  </si>
+  <si>
+    <t>Reports</t>
   </si>
 </sst>
 </file>
@@ -478,9 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84D20BD-F409-E647-9DD1-3AFF13868184}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -519,13 +519,16 @@
       <c r="C2" s="3">
         <v>44467</v>
       </c>
+      <c r="D2" s="3">
+        <v>44474</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>44467</v>
@@ -544,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
         <v>44467</v>
@@ -565,8 +568,14 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="3">
         <v>44467</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44477</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,6 +588,9 @@
       <c r="C8" s="3">
         <v>44467</v>
       </c>
+      <c r="D8" s="3">
+        <v>44476</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -590,10 +602,21 @@
       <c r="C9" s="3">
         <v>44467</v>
       </c>
+      <c r="D9" s="3">
+        <v>44477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44468</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{AFA7F67D-2AC6-DD4B-B2CB-A9DB69D800EB}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 D2 D7:D9" xr:uid="{AFA7F67D-2AC6-DD4B-B2CB-A9DB69D800EB}">
       <formula1>44467</formula1>
       <formula2>44479</formula2>
     </dataValidation>
@@ -604,9 +627,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E239E2D4-E3CE-4644-8AA6-460B2F8A9ECC}">
           <x14:formula1>
-            <xm:f>MEMBERS!$A$2:$A$7</xm:f>
+            <xm:f>MEMBERS!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -616,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E995DAB6-36AD-974F-ABCE-A51A401E8BF8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,15 +695,10 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
+      <c r="C6">
         <v>24596906</v>
       </c>
     </row>
